--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="998">
   <si>
     <t>anchor score</t>
   </si>
@@ -346,739 +346,739 @@
     <t>crash</t>
   </si>
   <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>strained</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>challenges</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>asked</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>strained</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>offered</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>delivering</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>trust</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>dying</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>asked</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>offered</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>delivering</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>trust</t>
   </si>
   <si>
     <t>appreciation</t>
@@ -3373,10 +3373,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K23">
         <v>0.9444444444444444</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K25">
         <v>0.9230769230769231</v>
@@ -4655,7 +4655,7 @@
         <v>101</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K27">
         <v>0.9090909090909091</v>
@@ -4755,7 +4755,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K29">
         <v>0.9090909090909091</v>
@@ -4805,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K30">
         <v>0.9</v>
@@ -4955,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K33">
         <v>0.8976377952755905</v>
@@ -5005,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K34">
         <v>0.8936170212765957</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K35">
         <v>0.8888888888888888</v>
@@ -5105,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K36">
         <v>0.8888888888888888</v>
@@ -5155,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K37">
         <v>0.8888888888888888</v>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K38">
         <v>0.8888888888888888</v>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42">
         <v>0.875</v>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K43">
         <v>0.8666666666666667</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K46">
         <v>0.8571428571428571</v>
@@ -5705,7 +5705,7 @@
         <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K48">
         <v>0.8571428571428571</v>
@@ -5805,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <v>0.85</v>
@@ -5855,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K51">
         <v>0.8461538461538461</v>
@@ -5955,7 +5955,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K53">
         <v>0.8421052631578947</v>
@@ -6105,7 +6105,7 @@
         <v>8</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K56">
         <v>0.8333333333333334</v>
@@ -6155,7 +6155,7 @@
         <v>47</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6255,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K59">
         <v>0.8333333333333334</v>
@@ -6305,7 +6305,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6355,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6555,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K65">
         <v>0.8226950354609929</v>
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K66">
         <v>0.8181818181818182</v>
@@ -6655,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K67">
         <v>0.8141025641025641</v>
@@ -6705,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K68">
         <v>0.8095238095238095</v>
@@ -6755,7 +6755,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K69">
         <v>0.8</v>
@@ -6855,7 +6855,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -6955,7 +6955,7 @@
         <v>8</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K73">
         <v>0.8</v>
@@ -7255,28 +7255,28 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="K79">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L79">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="M79">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7305,16 +7305,16 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K80">
         <v>0.75</v>
       </c>
       <c r="L80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -7355,16 +7355,16 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K81">
         <v>0.75</v>
       </c>
       <c r="L81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7405,28 +7405,28 @@
         <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7455,28 +7455,28 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="K83">
         <v>0.75</v>
       </c>
       <c r="L83">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7505,16 +7505,16 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K84">
         <v>0.75</v>
       </c>
       <c r="L84">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7555,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>329</v>
+        <v>71</v>
       </c>
       <c r="K85">
         <v>0.75</v>
@@ -7564,16 +7564,16 @@
         <v>6</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -7605,28 +7605,28 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="K86">
         <v>0.75</v>
       </c>
       <c r="L86">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N86">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="O86">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -7655,28 +7655,28 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="K87">
         <v>0.75</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7705,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K88">
         <v>0.75</v>
@@ -7755,16 +7755,16 @@
         <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K89">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -7805,28 +7805,28 @@
         <v>14</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>332</v>
+        <v>125</v>
       </c>
       <c r="K90">
-        <v>0.7333333333333333</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L90">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>32</v>
+      </c>
+      <c r="N90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O90">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
         <v>11</v>
-      </c>
-      <c r="M90">
-        <v>11</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -7855,28 +7855,28 @@
         <v>7</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="K91">
-        <v>0.7317073170731707</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L91">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="N91">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -7905,7 +7905,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K92">
         <v>0.7272727272727273</v>
@@ -8005,7 +8005,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K94">
         <v>0.7272727272727273</v>
@@ -8105,7 +8105,7 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K96">
         <v>0.7272727272727273</v>
@@ -8205,7 +8205,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K98">
         <v>0.7222222222222222</v>
@@ -8305,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8355,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K101">
         <v>0.7142857142857143</v>
@@ -8405,7 +8405,7 @@
         <v>8</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K102">
         <v>0.7142857142857143</v>
@@ -8455,7 +8455,7 @@
         <v>21</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K103">
         <v>0.7142857142857143</v>
@@ -8534,28 +8534,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K105">
         <v>0.7</v>
@@ -8584,28 +8584,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K106">
         <v>0.7</v>
@@ -8634,28 +8634,28 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1764705882352941</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K107">
         <v>0.6888888888888889</v>
@@ -8705,7 +8705,7 @@
         <v>10</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K108">
         <v>0.6862745098039216</v>
@@ -8737,25 +8737,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K109">
         <v>0.6842105263157895</v>
@@ -8790,22 +8790,22 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110">
         <v>0.6818181818181818</v>
@@ -8855,7 +8855,7 @@
         <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K111">
         <v>0.6777777777777778</v>
@@ -8890,22 +8890,22 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K112">
         <v>0.6666666666666666</v>
@@ -8940,13 +8940,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F113">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -8955,7 +8955,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -9005,7 +9005,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -9040,13 +9040,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E115">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -9090,13 +9090,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F116">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -9140,22 +9140,22 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>5</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9184,28 +9184,28 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K118">
         <v>0.6666666666666666</v>
@@ -9234,25 +9234,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.16</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F119">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>75</v>
@@ -9284,28 +9284,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E120">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F120">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K120">
         <v>0.6666666666666666</v>
@@ -9334,28 +9334,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K121">
         <v>0.6666666666666666</v>
@@ -9390,22 +9390,22 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
         <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K122">
         <v>0.6666666666666666</v>
@@ -9440,13 +9440,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F123">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -9455,28 +9455,28 @@
         <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>138</v>
+        <v>350</v>
       </c>
       <c r="K123">
-        <v>0.6584615384615384</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L123">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M123">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="N123">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9487,46 +9487,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E124">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F124">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="K124">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L124">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="M124">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9537,46 +9537,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="K125">
-        <v>0.65</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L125">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="M125">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9584,37 +9584,37 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>352</v>
       </c>
       <c r="K126">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M126">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9640,43 +9640,43 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
         <v>13</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="K127">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9684,28 +9684,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F128">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K128">
         <v>0.6363636363636364</v>
@@ -9737,46 +9737,46 @@
         <v>0.125</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E129">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F129">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="K129">
         <v>0.6363636363636364</v>
       </c>
       <c r="L129">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M129">
+        <v>15</v>
+      </c>
+      <c r="N129">
+        <v>0.93</v>
+      </c>
+      <c r="O129">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P129" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q129">
         <v>8</v>
-      </c>
-      <c r="N129">
-        <v>0.88</v>
-      </c>
-      <c r="O129">
-        <v>0.12</v>
-      </c>
-      <c r="P129" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q129">
-        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -9784,28 +9784,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="E130">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F130">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
@@ -9814,13 +9814,13 @@
         <v>14</v>
       </c>
       <c r="M130">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N130">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O130">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
@@ -9840,13 +9840,13 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -9855,28 +9855,28 @@
         <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="K131">
         <v>0.6363636363636364</v>
       </c>
       <c r="L131">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M131">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -9884,49 +9884,49 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="K132">
-        <v>0.6363636363636364</v>
+        <v>0.6328671328671329</v>
       </c>
       <c r="L132">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -9934,49 +9934,49 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.119047619047619</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D133">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="K133">
-        <v>0.6328671328671329</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L133">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="M133">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="N133">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O133">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -9987,46 +9987,46 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>96</v>
+        <v>354</v>
       </c>
       <c r="K134">
-        <v>0.631578947368421</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L134">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="M134">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="N134">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -10034,13 +10034,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>88</v>
@@ -10084,25 +10084,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>355</v>
@@ -10134,25 +10134,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>356</v>
@@ -10184,25 +10184,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>357</v>
@@ -10234,28 +10234,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1111111111111111</v>
+        <v>0.1065891472868217</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E139">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>461</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K139">
         <v>0.609375</v>
@@ -10284,25 +10284,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>358</v>
@@ -10334,13 +10334,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1065891472868217</v>
+        <v>0.1</v>
       </c>
       <c r="C141">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>67</v>
@@ -10384,25 +10384,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C142">
         <v>2</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>359</v>
@@ -10440,22 +10440,22 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>9</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K143">
         <v>0.6</v>
@@ -10487,10 +10487,10 @@
         <v>0.1</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>360</v>
@@ -10540,13 +10540,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F145">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10587,22 +10587,22 @@
         <v>0.1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>362</v>
@@ -10640,16 +10640,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>9</v>
@@ -10687,22 +10687,22 @@
         <v>0.1</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>364</v>
@@ -10734,7 +10734,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>365</v>
@@ -10784,28 +10784,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K150">
         <v>0.5666666666666667</v>
@@ -10840,16 +10840,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -10884,28 +10884,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K152">
         <v>0.5632183908045977</v>
@@ -10934,28 +10934,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F153">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K153">
         <v>0.5625</v>
@@ -10990,13 +10990,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
@@ -11040,16 +11040,16 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>11</v>
@@ -11090,16 +11090,16 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>11</v>
@@ -11155,7 +11155,7 @@
         <v>11</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K157">
         <v>0.5555555555555556</v>
@@ -11184,25 +11184,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>370</v>
@@ -11234,7 +11234,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11252,10 +11252,10 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K159">
         <v>0.5454545454545454</v>
@@ -11284,28 +11284,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K160">
         <v>0.5434782608695652</v>
@@ -11340,16 +11340,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>12</v>
@@ -11390,13 +11390,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F162">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11440,13 +11440,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E163">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F163">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -11484,25 +11484,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>373</v>
@@ -11534,25 +11534,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="E165">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F165">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>374</v>
@@ -11590,16 +11590,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>13</v>
@@ -11640,16 +11640,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>13</v>
@@ -11690,16 +11690,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>13</v>
@@ -11734,7 +11734,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>378</v>
@@ -11784,25 +11784,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>379</v>
@@ -11840,16 +11840,16 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>14</v>
@@ -11884,25 +11884,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>381</v>
@@ -11934,25 +11934,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>382</v>
@@ -11984,25 +11984,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>383</v>
@@ -12034,25 +12034,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>384</v>
@@ -12090,16 +12090,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>15</v>
@@ -12140,16 +12140,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>15</v>
@@ -12184,28 +12184,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K178">
         <v>0.5</v>
@@ -12234,7 +12234,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>386</v>
@@ -12284,25 +12284,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>387</v>
@@ -12334,25 +12334,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>388</v>
@@ -12405,7 +12405,7 @@
         <v>17</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K182">
         <v>0.4827586206896552</v>
@@ -12440,13 +12440,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12505,7 +12505,7 @@
         <v>17</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K184">
         <v>0.4761904761904762</v>
@@ -12584,13 +12584,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>390</v>
@@ -12634,25 +12634,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>391</v>
@@ -12684,28 +12684,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K188">
         <v>0.4615384615384616</v>
@@ -12740,16 +12740,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>18</v>
@@ -12784,28 +12784,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K190">
         <v>0.4583333333333333</v>
@@ -12834,25 +12834,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>393</v>
@@ -12887,22 +12887,22 @@
         <v>0.05</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>394</v>
@@ -12934,28 +12934,28 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K193">
         <v>0.4444444444444444</v>
@@ -12984,25 +12984,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>395</v>
@@ -13040,16 +13040,16 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>21</v>
@@ -13084,25 +13084,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="F196">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>397</v>
@@ -13134,7 +13134,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>398</v>
@@ -13187,22 +13187,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E198">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F198">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>399</v>
@@ -13240,22 +13240,22 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>22</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K199">
         <v>0.44</v>
@@ -13284,28 +13284,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K200">
         <v>0.4358974358974359</v>
@@ -13334,25 +13334,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>400</v>
@@ -13384,25 +13384,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>105</v>
@@ -13434,25 +13434,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>401</v>
@@ -13484,25 +13484,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>402</v>
@@ -13540,16 +13540,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>25</v>
@@ -13584,25 +13584,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E206">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F206">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>404</v>
@@ -13634,25 +13634,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>405</v>
@@ -13690,16 +13690,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E208">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>26</v>
@@ -13737,22 +13737,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>407</v>
@@ -13784,7 +13784,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>408</v>
@@ -13834,25 +13834,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>409</v>
@@ -13884,7 +13884,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>410</v>
@@ -13934,25 +13934,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>82</v>
@@ -13984,25 +13984,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>84</v>
@@ -14034,25 +14034,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>83</v>
@@ -14084,25 +14084,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>411</v>
@@ -14134,25 +14134,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>412</v>
@@ -14184,25 +14184,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>413</v>
@@ -14234,25 +14234,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>414</v>
@@ -14284,25 +14284,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>415</v>
@@ -14334,7 +14334,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14352,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K221">
         <v>0.375</v>
@@ -14384,25 +14384,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>416</v>
@@ -14434,25 +14434,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>417</v>
@@ -14484,25 +14484,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>418</v>
@@ -14534,25 +14534,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>419</v>
@@ -14584,25 +14584,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>420</v>
@@ -14634,28 +14634,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K227">
         <v>0.375</v>
@@ -14684,28 +14684,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K228">
         <v>0.3684210526315789</v>
@@ -14734,28 +14734,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K229">
         <v>0.3658536585365854</v>
@@ -14784,28 +14784,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02597402597402598</v>
+        <v>0.025</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F230">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K230">
         <v>0.3636363636363636</v>
@@ -14834,25 +14834,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>421</v>
@@ -14884,25 +14884,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>422</v>
@@ -14934,28 +14934,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K233">
         <v>0.3611111111111111</v>
@@ -14990,16 +14990,16 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>41</v>
@@ -15034,28 +15034,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F235">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K235">
         <v>0.3529411764705883</v>
@@ -15084,28 +15084,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02380952380952381</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K236">
         <v>0.3478260869565217</v>
@@ -15134,28 +15134,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K237">
         <v>0.3461538461538461</v>
@@ -15184,25 +15184,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02205882352941177</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F238">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>424</v>
@@ -15234,25 +15234,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02127659574468085</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>425</v>
@@ -15284,25 +15284,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02127659574468085</v>
+        <v>0.02</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>426</v>
@@ -15334,13 +15334,13 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02013422818791946</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -15352,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>427</v>
@@ -15384,25 +15384,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>428</v>
@@ -15434,25 +15434,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0196078431372549</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>79</v>
@@ -15484,25 +15484,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E244">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F244">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>429</v>
@@ -15534,25 +15534,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>312</v>
+        <v>54</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>430</v>
@@ -15584,25 +15584,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E246">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F246">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>431</v>
@@ -15634,25 +15634,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>432</v>
@@ -15684,25 +15684,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01785714285714286</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E248">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F248">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>101</v>
@@ -15734,28 +15734,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01724137931034483</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F249">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K249">
         <v>0.3333333333333333</v>
@@ -15784,25 +15784,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01680672268907563</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>433</v>
@@ -15834,25 +15834,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01538461538461539</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>434</v>
@@ -15884,7 +15884,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01515151515151515</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15902,7 +15902,7 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>435</v>
@@ -15934,25 +15934,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E253">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F253">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>436</v>
@@ -15984,7 +15984,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01298701298701299</v>
+        <v>0.0125</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>437</v>
@@ -16034,25 +16034,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0125</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E255">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F255">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>438</v>
@@ -16084,25 +16084,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0125</v>
+        <v>0.009771986970684038</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>439</v>
@@ -16134,25 +16134,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01149425287356322</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F257">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>440</v>
@@ -16184,25 +16184,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.009771986970684038</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E258">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F258">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>441</v>
@@ -16234,25 +16234,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.009708737864077669</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F259">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>442</v>
@@ -16284,25 +16284,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.009615384615384616</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E260">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F260">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>443</v>
@@ -16334,25 +16334,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.009523809523809525</v>
+        <v>0.007987220447284345</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E261">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>104</v>
+        <v>621</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>444</v>
@@ -16384,25 +16384,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.008264462809917356</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E262">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>445</v>
@@ -16434,25 +16434,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.007987220447284345</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C263">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>621</v>
+        <v>128</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>446</v>
@@ -16484,25 +16484,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.007874015748031496</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E264">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F264">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>447</v>
@@ -16534,25 +16534,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.007751937984496124</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E265">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>448</v>
@@ -16584,28 +16584,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.004444444444444444</v>
+        <v>0.003112033195020747</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="F266">
-        <v>0.07999999999999996</v>
+        <v>0.43</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>224</v>
+        <v>961</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K266">
         <v>0.3076923076923077</v>
@@ -16634,28 +16634,28 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.003968253968253968</v>
+        <v>0.002994011976047904</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K267">
         <v>0.3076923076923077</v>
@@ -16684,25 +16684,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.003112033195020747</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="C268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E268">
-        <v>0.57</v>
+        <v>0.96</v>
       </c>
       <c r="F268">
-        <v>0.43</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>961</v>
+        <v>393</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>449</v>
@@ -16734,25 +16734,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002994011976047904</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E269">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F269">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>333</v>
+        <v>846</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>450</v>
@@ -16784,13 +16784,13 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002538071065989848</v>
+        <v>0.002336448598130841</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E270">
         <v>0.96</v>
@@ -16802,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>393</v>
+        <v>854</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>451</v>
@@ -16834,25 +16834,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002358490566037736</v>
+        <v>0.002105263157894737</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>846</v>
+        <v>474</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>452</v>
@@ -16884,13 +16884,13 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002336448598130841</v>
+        <v>0.001948368241597662</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D272">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E272">
         <v>0.96</v>
@@ -16902,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>854</v>
+        <v>2049</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>453</v>
@@ -16934,25 +16934,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.002105263157894737</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E273">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F273">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>454</v>
@@ -16984,13 +16984,13 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.001948368241597662</v>
+        <v>0.001681802892700975</v>
       </c>
       <c r="C274">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D274">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="E274">
         <v>0.96</v>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>2049</v>
+        <v>2968</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>455</v>
@@ -17034,28 +17034,28 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.001855287569573284</v>
+        <v>0.001189060642092747</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E275">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>538</v>
+        <v>840</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K275">
         <v>0.2857142857142857</v>
@@ -17084,13 +17084,13 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.001681802892700975</v>
+        <v>0.0008787346221441124</v>
       </c>
       <c r="C276">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="E276">
         <v>0.96</v>
@@ -17102,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>2968</v>
+        <v>1137</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>456</v>
@@ -17134,25 +17134,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.001189060642092747</v>
+        <v>0.0006379585326953748</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E277">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F277">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>840</v>
+        <v>3133</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>457</v>
@@ -17180,32 +17180,8 @@
       </c>
     </row>
     <row r="278" spans="1:17">
-      <c r="A278" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B278">
-        <v>0.0008787346221441124</v>
-      </c>
-      <c r="C278">
-        <v>1</v>
-      </c>
-      <c r="D278">
-        <v>24</v>
-      </c>
-      <c r="E278">
-        <v>0.96</v>
-      </c>
-      <c r="F278">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278">
-        <v>1137</v>
-      </c>
       <c r="J278" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K278">
         <v>0.2857142857142857</v>
@@ -17230,30 +17206,6 @@
       </c>
     </row>
     <row r="279" spans="1:17">
-      <c r="A279" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B279">
-        <v>0.0006379585326953748</v>
-      </c>
-      <c r="C279">
-        <v>2</v>
-      </c>
-      <c r="D279">
-        <v>68</v>
-      </c>
-      <c r="E279">
-        <v>0.97</v>
-      </c>
-      <c r="F279">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279">
-        <v>3133</v>
-      </c>
       <c r="J279" s="1" t="s">
         <v>458</v>
       </c>
@@ -17489,7 +17441,7 @@
     </row>
     <row r="288" spans="1:17">
       <c r="J288" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K288">
         <v>0.2857142857142857</v>
@@ -17723,7 +17675,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K297">
         <v>0.2727272727272727</v>
@@ -17749,7 +17701,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K298">
         <v>0.2727272727272727</v>
@@ -18009,7 +17961,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K308">
         <v>0.2608695652173913</v>
@@ -18061,7 +18013,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K310">
         <v>0.2582159624413146</v>
@@ -18113,7 +18065,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K312">
         <v>0.2547770700636943</v>
@@ -18321,7 +18273,7 @@
     </row>
     <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K320">
         <v>0.25</v>
@@ -18711,7 +18663,7 @@
     </row>
     <row r="335" spans="10:17">
       <c r="J335" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K335">
         <v>0.2427184466019418</v>
@@ -18789,7 +18741,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K338">
         <v>0.2333333333333333</v>
@@ -18815,7 +18767,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K339">
         <v>0.2307692307692308</v>
@@ -18997,7 +18949,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K346">
         <v>0.2272727272727273</v>
@@ -19413,7 +19365,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K362">
         <v>0.2142857142857143</v>
@@ -19465,7 +19417,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K364">
         <v>0.2105263157894737</v>
@@ -19647,7 +19599,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K371">
         <v>0.2</v>
@@ -19803,7 +19755,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K377">
         <v>0.2</v>
@@ -20193,7 +20145,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K392">
         <v>0.189873417721519</v>
@@ -20401,7 +20353,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K400">
         <v>0.1818181818181818</v>
@@ -20427,7 +20379,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K401">
         <v>0.1818181818181818</v>
@@ -20505,7 +20457,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K404">
         <v>0.1785714285714286</v>
@@ -20661,7 +20613,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K410">
         <v>0.1702127659574468</v>
@@ -20921,7 +20873,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K420">
         <v>0.1666666666666667</v>
@@ -21623,7 +21575,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K447">
         <v>0.1538461538461539</v>
@@ -21753,7 +21705,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K452">
         <v>0.1451612903225807</v>
@@ -21779,7 +21731,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K453">
         <v>0.1428571428571428</v>
@@ -23807,7 +23759,7 @@
     </row>
     <row r="531" spans="10:17">
       <c r="J531" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K531">
         <v>0.1052631578947368</v>
@@ -23833,7 +23785,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K532">
         <v>0.1052631578947368</v>
@@ -23859,7 +23811,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K533">
         <v>0.1041666666666667</v>
@@ -23885,7 +23837,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K534">
         <v>0.103448275862069</v>
@@ -24275,7 +24227,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K549">
         <v>0.09523809523809523</v>
@@ -24301,7 +24253,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K550">
         <v>0.09375</v>
@@ -24457,7 +24409,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K556">
         <v>0.09090909090909091</v>
@@ -25029,7 +24981,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K578">
         <v>0.08433734939759036</v>
@@ -25419,7 +25371,7 @@
     </row>
     <row r="593" spans="10:17">
       <c r="J593" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K593">
         <v>0.08064516129032258</v>
@@ -25523,7 +25475,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K597">
         <v>0.07894736842105263</v>
@@ -25757,7 +25709,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K606">
         <v>0.075</v>
@@ -25887,7 +25839,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K611">
         <v>0.07272727272727272</v>
@@ -25913,7 +25865,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K612">
         <v>0.07207207207207207</v>
@@ -26641,7 +26593,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K640">
         <v>0.06666666666666667</v>
@@ -26901,7 +26853,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K650">
         <v>0.06172839506172839</v>
@@ -27031,7 +26983,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K655">
         <v>0.06060606060606061</v>
@@ -27187,7 +27139,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K661">
         <v>0.05882352941176471</v>
@@ -27265,7 +27217,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K664">
         <v>0.05714285714285714</v>
@@ -27421,7 +27373,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K670">
         <v>0.05555555555555555</v>
@@ -27603,7 +27555,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K677">
         <v>0.05301204819277108</v>
@@ -27811,7 +27763,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K685">
         <v>0.05263157894736842</v>
@@ -27889,7 +27841,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K688">
         <v>0.0515695067264574</v>
@@ -27967,7 +27919,7 @@
     </row>
     <row r="691" spans="10:17">
       <c r="J691" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K691">
         <v>0.05084745762711865</v>
@@ -28045,7 +27997,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K694">
         <v>0.05005561735261402</v>
@@ -28331,7 +28283,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K705">
         <v>0.04761904761904762</v>
@@ -28617,7 +28569,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K716">
         <v>0.04545454545454546</v>
@@ -28695,7 +28647,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K719">
         <v>0.04545454545454546</v>
@@ -28903,7 +28855,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K727">
         <v>0.04319793681495809</v>
@@ -28929,7 +28881,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K728">
         <v>0.04310344827586207</v>
@@ -28981,7 +28933,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K730">
         <v>0.04207573632538569</v>
@@ -29059,7 +29011,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K733">
         <v>0.04166666666666666</v>
@@ -29475,7 +29427,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K749">
         <v>0.03720930232558139</v>
@@ -30333,7 +30285,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K782">
         <v>0.0303030303030303</v>
@@ -30359,7 +30311,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K783">
         <v>0.03002309468822171</v>
@@ -30593,7 +30545,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K792">
         <v>0.02803738317757009</v>
@@ -30697,7 +30649,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K796">
         <v>0.02777777777777778</v>
@@ -31113,7 +31065,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K812">
         <v>0.02380952380952381</v>
@@ -31139,7 +31091,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K813">
         <v>0.02380952380952381</v>
@@ -31243,7 +31195,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K817">
         <v>0.02268041237113402</v>
@@ -31555,7 +31507,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K829">
         <v>0.02063144732728978</v>
@@ -31685,7 +31637,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K834">
         <v>0.01982758620689655</v>
@@ -31789,7 +31741,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K838">
         <v>0.01886792452830189</v>
@@ -32179,7 +32131,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K853">
         <v>0.01538461538461539</v>
@@ -32699,7 +32651,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K873">
         <v>0.01102941176470588</v>
@@ -32933,7 +32885,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K882">
         <v>0.007874015748031496</v>
@@ -33141,7 +33093,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K890">
         <v>0.004145077720207254</v>
